--- a/src/main/resources/input_excel_file/booking/Booking_Quote_Fee.xlsx
+++ b/src/main/resources/input_excel_file/booking/Booking_Quote_Fee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,9 +1168,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1723,7 +1720,7 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1731,8 +1728,9 @@
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="6"/>
     <col min="2" max="2" width="30" style="6" customWidth="1"/>
-    <col min="3" max="7" width="21.8571428571429" style="6" customWidth="1"/>
-    <col min="8" max="8" width="55.8571428571429" style="6" customWidth="1"/>
+    <col min="3" max="6" width="21.8571428571429" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19" style="6" customWidth="1"/>
+    <col min="8" max="8" width="42.2285714285714" style="6" customWidth="1"/>
     <col min="9" max="9" width="40.1238095238095" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9.14285714285714" style="6"/>
   </cols>
@@ -1759,242 +1757,242 @@
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="59" customHeight="1" spans="1:9">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>95</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="59" customHeight="1" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>95</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>95</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="51" customHeight="1" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>95</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="56" customHeight="1" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>95</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:9">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>95</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="63" customHeight="1" spans="1:9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>95</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2009,8 +2007,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/src/main/resources/input_excel_file/booking/Booking_Quote_Fee.xlsx
+++ b/src/main/resources/input_excel_file/booking/Booking_Quote_Fee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -861,19 +861,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -886,6 +873,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -994,16 +994,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1167,22 +1167,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1720,19 +1720,19 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="6"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
     <col min="2" max="2" width="30" style="6" customWidth="1"/>
-    <col min="3" max="6" width="21.8571428571429" style="6" customWidth="1"/>
+    <col min="3" max="6" width="21.859375" style="6" customWidth="1"/>
     <col min="7" max="7" width="19" style="6" customWidth="1"/>
-    <col min="8" max="8" width="42.2285714285714" style="6" customWidth="1"/>
-    <col min="9" max="9" width="40.1238095238095" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.14285714285714" style="6"/>
+    <col min="8" max="8" width="42.2265625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="40.125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:9">
@@ -1751,10 +1751,10 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -1765,28 +1765,28 @@
       </c>
     </row>
     <row r="2" ht="59" customHeight="1" spans="1:9">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>95</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -1794,25 +1794,25 @@
       </c>
     </row>
     <row r="3" ht="59" customHeight="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>95</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1823,25 +1823,25 @@
       </c>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>95</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1852,25 +1852,25 @@
       </c>
     </row>
     <row r="5" ht="51" customHeight="1" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>95</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -1881,25 +1881,25 @@
       </c>
     </row>
     <row r="6" ht="56" customHeight="1" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>95</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -1910,25 +1910,25 @@
       </c>
     </row>
     <row r="7" ht="60" customHeight="1" spans="1:9">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -1939,25 +1939,25 @@
       </c>
     </row>
     <row r="8" ht="63" customHeight="1" spans="1:9">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>95</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -1968,25 +1968,25 @@
       </c>
     </row>
     <row r="9" ht="63" customHeight="1" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>95</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -2007,19 +2007,19 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="41.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="38.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="31.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="41.859375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.2890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" spans="1:4">
+    <row r="1" ht="21.75" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
